--- a/Documentation/test/Test.xlsx
+++ b/Documentation/test/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduvaud-my.sharepoint.com/personal/po31fdh_eduvaud_ch/Documents/Documents/Boite_a_outils_pour_electronicien/Documentation/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{C6EC6C67-73DD-4FBC-AFF2-DCC9B165F64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC018DBF-5DE1-4029-91B0-DD83BDB5DC24}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{C6EC6C67-73DD-4FBC-AFF2-DCC9B165F64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E79A4C10-2D81-439F-AB42-49DC47CB6099}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0F75C24-F3D4-44D9-AAF0-F24370C554DA}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>Point 1</t>
   </si>
   <si>
-    <t>Partie pas respecter</t>
+    <t>Partie du scénario par respecter</t>
   </si>
 </sst>
 </file>
@@ -526,6 +526,51 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,25 +580,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,30 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,39 +629,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,25 +971,25 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1004,10 +1004,10 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>15</v>
       </c>
       <c r="C5" s="2">
@@ -1022,10 +1022,10 @@
       <c r="F5" s="3">
         <v>680</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>10</v>
       </c>
       <c r="C6" s="2">
@@ -1040,10 +1040,10 @@
       <c r="F6" s="3">
         <v>390</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>5</v>
       </c>
       <c r="C7" s="2">
@@ -1058,10 +1058,10 @@
       <c r="F7" s="3">
         <v>3.3</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>20</v>
       </c>
       <c r="C8" s="2">
@@ -1076,57 +1076,57 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="J8" s="41"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>12</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="30">
         <v>20000000</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="41"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1141,12 +1141,12 @@
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="2">
@@ -1162,10 +1162,10 @@
       <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
+      <c r="B15" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1181,69 +1181,69 @@
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="15">
         <v>2200</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35">
+      <c r="B16" s="29">
         <v>0.12</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="13">
         <v>27000</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="30">
         <f>B16/C16</f>
         <v>4.4444444444444441E-6</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="31">
         <v>4.6999999999999999E-6</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="8" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="I18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="12"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1"/>
@@ -1256,10 +1256,10 @@
       <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1268,12 +1268,12 @@
       <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>560</v>
       </c>
       <c r="C21" s="2"/>
@@ -1284,14 +1284,14 @@
         <v>23</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="21"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>121000</v>
       </c>
       <c r="C22" s="2"/>
@@ -1305,17 +1305,17 @@
         <f>D22+E22</f>
         <v>121000</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="15">
         <f>100*(F22-B22)/B22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>833</v>
       </c>
       <c r="C23" s="2"/>
@@ -1329,11 +1329,11 @@
         <f>D23+E23</f>
         <v>835</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="17">
         <f>(F23-B23)/B23</f>
         <v>2.4009603841536613E-3</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <v>12</v>
       </c>
       <c r="J23" s="2">
@@ -1342,12 +1342,12 @@
       <c r="K23" s="2">
         <v>833</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="9">
         <v>1.2004800999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>55</v>
       </c>
       <c r="C24" s="2"/>
@@ -1361,25 +1361,25 @@
         <f>D24+E24</f>
         <v>55.2</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="17">
         <f>(F24-B24)/B24</f>
         <v>3.636363636363688E-3</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <v>22</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <v>33</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="13">
         <v>55</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>56000000</v>
       </c>
       <c r="C25" s="2"/>
@@ -1388,41 +1388,41 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15">
+      <c r="B26" s="12">
         <v>0.8</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
         <v>1</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="13">
         <v>0</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="18">
         <f t="shared" ref="F26" si="0">D26+E26</f>
         <v>1</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="19">
         <f t="shared" ref="G26" si="1">(F26-B26)/B26</f>
         <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1437,16 +1437,19 @@
     <mergeCell ref="I18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405D4966-A6AA-4015-ABA1-3AB269552A75}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,109 +1463,110 @@
   <sheetData>
     <row r="1" spans="2:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>